--- a/biology/Zoologie/Aphnaeinae/Aphnaeinae.xlsx
+++ b/biology/Zoologie/Aphnaeinae/Aphnaeinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Aphnaeinae sont une sous-famille de lépidoptères (papillons) de la famille des Lycaenidae. Elle comporte 278 espèces, réparties dans 17 genres[1]. La plupart sont originaires d'Afrique, et certaines d'Asie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aphnaeinae sont une sous-famille de lépidoptères (papillons) de la famille des Lycaenidae. Elle comporte 278 espèces, réparties dans 17 genres. La plupart sont originaires d'Afrique, et certaines d'Asie.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aphnaeinae étaient auparavant considérés comme une tribu, appelée Aphnaeini, dans la sous-famille des Theclinae.
 </t>
@@ -542,26 +556,28 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Boyle et al., 2015[1], la sous-famille des Aphnaeinae comporte les 17 genres suivants :
-Aloeides Hübner, [1819]
-Aphnaeus Hübner, [1819]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Boyle et al., 2015, la sous-famille des Aphnaeinae comporte les 17 genres suivants :
+Aloeides Hübner, 
+Aphnaeus Hübner, 
 Argyraspodes Tite &amp; Dickson, 1973
-Axiocerses Hübner, [1819]
+Axiocerses Hübner, 
 Cesa Seven, 1997
-Chloroselas Butler, [1886]
-Chrysoritis Butler, [1898]
+Chloroselas Butler, 
+Chrysoritis Butler, 
 Cigaritis Donzel, 1847
 Crudaria Wallengren, 1875
 Erikssonia Trimen, 1891
 Lipaphnaeus Aurivillius, 1916
-Phasis Hübner, [1819]
+Phasis Hübner, 
 Pseudaletis Druce, 1888
 Trimenia Tite &amp; Dickson, 1973
 Tylopaedia Tite &amp; Dickson, 1973
 Vansomerenia Heath, 1997
-Zeritis Boisduval, [1836]
+Zeritis Boisduval, 
 			Aloeides vansoni
 			Argyraspodes argyraspis
 			Axiocerses tjoane
